--- a/levels.xlsx
+++ b/levels.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="66">
   <si>
     <t>Jump</t>
   </si>
@@ -188,10 +188,40 @@
     <t>No cap</t>
   </si>
   <si>
-    <t>* Force XP doubles each level</t>
-  </si>
-  <si>
     <t>Start with 100</t>
+  </si>
+  <si>
+    <t>Cost at L 1</t>
+  </si>
+  <si>
+    <t>Cost at L 2</t>
+  </si>
+  <si>
+    <t>Cost at L 3</t>
+  </si>
+  <si>
+    <t>Cost at L 4</t>
+  </si>
+  <si>
+    <t>Cost at L 5</t>
+  </si>
+  <si>
+    <t>Knowledge/level</t>
+  </si>
+  <si>
+    <t>Recharge (seconds)</t>
+  </si>
+  <si>
+    <t>* Force XP adds 100 / level</t>
+  </si>
+  <si>
+    <t>Recharge rate: /second</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Recharge Percent / second</t>
   </si>
 </sst>
 </file>
@@ -313,7 +343,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4"/>
@@ -326,6 +356,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
@@ -611,1051 +642,925 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH45"/>
+  <dimension ref="A1:BI47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="AF4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
         <v>7</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>8</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>9</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>10</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>11</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>12</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>13</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>14</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>15</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>16</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>17</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>18</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>19</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>20</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>21</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>22</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>23</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>24</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>25</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>26</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>27</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>28</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>29</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>30</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>31</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>32</v>
       </c>
-      <c r="AG1">
+      <c r="AH1">
         <v>33</v>
       </c>
-      <c r="AH1">
+      <c r="AI1">
         <v>34</v>
       </c>
-      <c r="AI1">
+      <c r="AJ1">
         <v>35</v>
       </c>
-      <c r="AJ1">
+      <c r="AK1">
         <v>36</v>
       </c>
-      <c r="AK1">
+      <c r="AL1">
         <v>37</v>
       </c>
-      <c r="AL1">
+      <c r="AM1">
         <v>38</v>
       </c>
-      <c r="AM1">
+      <c r="AN1">
         <v>39</v>
       </c>
-      <c r="AN1">
+      <c r="AO1">
         <v>40</v>
       </c>
-      <c r="AO1">
+      <c r="AP1">
         <v>41</v>
       </c>
-      <c r="AP1">
+      <c r="AQ1">
         <v>42</v>
       </c>
-      <c r="AQ1">
+      <c r="AR1">
         <v>43</v>
       </c>
-      <c r="AR1">
+      <c r="AS1">
         <v>44</v>
       </c>
-      <c r="AS1">
+      <c r="AT1">
         <v>45</v>
       </c>
-      <c r="AT1">
+      <c r="AU1">
         <v>46</v>
       </c>
-      <c r="AU1">
+      <c r="AV1">
         <v>47</v>
       </c>
-      <c r="AV1">
+      <c r="AW1">
         <v>48</v>
       </c>
-      <c r="AW1">
+      <c r="AX1">
         <v>49</v>
       </c>
-      <c r="AX1">
+      <c r="AY1">
         <v>50</v>
       </c>
-      <c r="AY1">
+      <c r="AZ1">
         <v>51</v>
       </c>
-      <c r="AZ1">
+      <c r="BA1">
         <v>52</v>
       </c>
-      <c r="BA1">
+      <c r="BB1">
         <v>53</v>
       </c>
-      <c r="BB1">
+      <c r="BC1">
         <v>54</v>
       </c>
-      <c r="BC1">
+      <c r="BD1">
         <v>55</v>
       </c>
-      <c r="BD1">
+      <c r="BE1">
         <v>56</v>
       </c>
-      <c r="BE1">
+      <c r="BF1">
         <v>57</v>
       </c>
-      <c r="BF1">
+      <c r="BG1">
         <v>58</v>
       </c>
-      <c r="BG1">
+      <c r="BH1">
         <v>59</v>
       </c>
-      <c r="BH1">
+      <c r="BI1">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3">
+        <v>1.2</v>
+      </c>
+      <c r="D3">
+        <v>1.3</v>
+      </c>
+      <c r="E3">
+        <v>1.4</v>
+      </c>
+      <c r="F3">
+        <v>1.5</v>
+      </c>
+      <c r="G3">
+        <v>1.6</v>
+      </c>
+      <c r="H3">
+        <v>1.7</v>
+      </c>
+      <c r="I3">
+        <v>1.8</v>
+      </c>
+      <c r="J3">
+        <v>1.9</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2.1</v>
+      </c>
+      <c r="M3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O3">
+        <v>2.4</v>
+      </c>
+      <c r="P3">
+        <v>2.5</v>
+      </c>
+      <c r="Q3">
+        <v>2.6</v>
+      </c>
+      <c r="R3">
+        <v>2.7</v>
+      </c>
+      <c r="S3">
+        <v>2.8</v>
+      </c>
+      <c r="T3">
+        <v>2.9</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>3.1</v>
+      </c>
+      <c r="W3">
+        <v>3.2</v>
+      </c>
+      <c r="X3">
+        <v>3.3</v>
+      </c>
+      <c r="Y3">
+        <v>3.4</v>
+      </c>
+      <c r="Z3">
+        <v>3.5</v>
+      </c>
+      <c r="AA3">
+        <v>3.6</v>
+      </c>
+      <c r="AB3">
+        <v>3.7</v>
+      </c>
+      <c r="AC3">
+        <v>3.8</v>
+      </c>
+      <c r="AD3">
+        <v>3.9</v>
+      </c>
+      <c r="AE3">
+        <v>4</v>
+      </c>
+      <c r="AF3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AG3">
+        <v>4.2</v>
+      </c>
+      <c r="AH3">
+        <v>4.3</v>
+      </c>
+      <c r="AI3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AJ3">
+        <v>4.5</v>
+      </c>
+      <c r="AK3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AL3">
+        <v>4.7</v>
+      </c>
+      <c r="AM3">
+        <v>4.7999999999999901</v>
+      </c>
+      <c r="AN3">
+        <v>4.8999999999999897</v>
+      </c>
+      <c r="AO3">
+        <v>5</v>
+      </c>
+      <c r="AP3">
+        <v>5.0999999999999899</v>
+      </c>
+      <c r="AQ3">
+        <v>5.1999999999999904</v>
+      </c>
+      <c r="AR3">
+        <v>5.2999999999999901</v>
+      </c>
+      <c r="AS3">
+        <v>5.3999999999999897</v>
+      </c>
+      <c r="AT3">
+        <v>5.4999999999999902</v>
+      </c>
+      <c r="AU3">
+        <v>5.5999999999999899</v>
+      </c>
+      <c r="AV3">
+        <v>5.6999999999999904</v>
+      </c>
+      <c r="AW3">
+        <v>5.7999999999999901</v>
+      </c>
+      <c r="AX3">
+        <v>5.8999999999999897</v>
+      </c>
+      <c r="AY3">
+        <v>5.9999999999999902</v>
+      </c>
+      <c r="AZ3">
+        <v>5.9999999999999902</v>
+      </c>
+      <c r="BA3">
+        <v>5.9999999999999902</v>
+      </c>
+      <c r="BB3">
+        <v>5.9999999999999902</v>
+      </c>
+      <c r="BC3">
+        <v>5.9999999999999902</v>
+      </c>
+      <c r="BD3">
+        <v>5.9999999999999902</v>
+      </c>
+      <c r="BE3">
+        <v>5.9999999999999902</v>
+      </c>
+      <c r="BF3">
+        <v>5.9999999999999902</v>
+      </c>
+      <c r="BG3">
+        <v>5.9999999999999902</v>
+      </c>
+      <c r="BH3">
+        <v>5.9999999999999902</v>
+      </c>
+      <c r="BI3">
+        <v>5.9999999999999902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="P7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1666,138 +1571,158 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="U8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BE8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1813,123 +1738,143 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
+      <c r="Q9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="Z9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BE9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1950,925 +1895,1487 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
+      <c r="V10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AE10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AF10" s="1" t="s">
+      <c r="AG12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AG10" s="1" t="s">
+      <c r="AH12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AH10" s="1" t="s">
+      <c r="AI12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AI10" s="1" t="s">
+      <c r="AJ12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AJ10" s="1" t="s">
+      <c r="AK12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AK10" s="1" t="s">
+      <c r="AL12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AL10" s="1" t="s">
+      <c r="AM12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AM10" s="1" t="s">
+      <c r="AN12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AN10" s="1" t="s">
+      <c r="AO12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AO10" s="1" t="s">
+      <c r="AP12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AP10" s="1" t="s">
+      <c r="AQ12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AQ10" s="1" t="s">
+      <c r="AR12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AR10" s="1" t="s">
+      <c r="AS12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AS10" s="1" t="s">
+      <c r="AT12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AT10" s="1" t="s">
+      <c r="AU12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AU10" s="1" t="s">
+      <c r="AV12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AV10" s="1" t="s">
+      <c r="AW12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AW10" s="1" t="s">
+      <c r="AX12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AX10" s="1" t="s">
+      <c r="AY12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AY10" s="1" t="s">
+      <c r="AZ12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AZ10" s="1" t="s">
+      <c r="BA12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BA10" s="1" t="s">
+      <c r="BB12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BB10" s="1" t="s">
+      <c r="BC12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BC10" s="1" t="s">
+      <c r="BD12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BD10" s="1" t="s">
+      <c r="BE12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BE10" s="1" t="s">
+      <c r="BF12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BF10" s="1" t="s">
+      <c r="BG12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BG10" s="1" t="s">
+      <c r="BH12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BH10" s="1" t="s">
+      <c r="BI12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O13" t="s">
+      <c r="N15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="J16" s="5"/>
+      <c r="AB16" t="s">
         <v>54</v>
       </c>
-      <c r="AJ13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="I14" s="5"/>
-      <c r="O14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
+    </row>
+    <row r="17" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="8" t="s">
+      <c r="I17" s="6"/>
+      <c r="J17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7" t="s">
+      <c r="K17" s="6"/>
+      <c r="L17" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="I16" s="9"/>
-      <c r="K16" s="4"/>
-      <c r="AJ16" s="3" t="s">
+      <c r="N17">
+        <v>25</v>
+      </c>
+      <c r="O17">
+        <v>50</v>
+      </c>
+      <c r="P17">
+        <v>75</v>
+      </c>
+      <c r="Q17">
+        <v>100</v>
+      </c>
+      <c r="R17">
+        <v>125</v>
+      </c>
+      <c r="T17">
+        <v>2.5</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="J18" s="9"/>
+      <c r="L18" s="4"/>
+      <c r="AK18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AK16" s="3" t="s">
+      <c r="AL18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AL16" s="3" t="s">
+      <c r="AM18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AM16" s="3" t="s">
+      <c r="AN18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AN16" s="3" t="s">
+      <c r="AO18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AO16" s="3" t="s">
+      <c r="AP18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AP16" s="3" t="s">
+      <c r="AQ18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AQ16" s="3" t="s">
+      <c r="AR18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AR16" s="3" t="s">
+      <c r="AS18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AS16" s="3" t="s">
+      <c r="AT18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AT16" s="3" t="s">
+      <c r="AU18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AU16" s="3" t="s">
+      <c r="AV18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AV16" s="3" t="s">
+      <c r="AW18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AW16" s="3" t="s">
+      <c r="AX18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AX16" s="3" t="s">
+      <c r="AY18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AY16" s="3" t="s">
+      <c r="AZ18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AZ16" s="3" t="s">
+      <c r="BA18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="BA16" s="3" t="s">
+      <c r="BB18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="BB16" s="3" t="s">
+      <c r="BC18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="BC16" s="3" t="s">
+      <c r="BD18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="BD16" s="3" t="s">
+      <c r="BE18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="BE16" s="3" t="s">
+      <c r="BF18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="BF16" s="3" t="s">
+      <c r="BG18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="BG16" s="3" t="s">
+      <c r="BH18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="BH16" s="3" t="s">
+      <c r="BI18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
+    <row r="19" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="8" t="s">
+      <c r="I19" s="6"/>
+      <c r="J19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7" t="s">
+      <c r="K19" s="6"/>
+      <c r="L19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AW17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AX17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AY17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AZ17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="BA17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="BB17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="BC17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="BD17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="BF17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="BG17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="BH17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1.75</v>
-      </c>
-      <c r="F18" s="6">
-        <v>2</v>
-      </c>
-      <c r="G18" s="6">
-        <v>2.25</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="BB18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="BC18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="BD18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="BE18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="BF18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="BG18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="BH18" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="I19" s="9"/>
-      <c r="K19" s="4"/>
-      <c r="AJ19" s="3"/>
+      <c r="N19">
+        <v>40</v>
+      </c>
+      <c r="O19">
+        <v>80</v>
+      </c>
+      <c r="P19">
+        <v>120</v>
+      </c>
+      <c r="Q19">
+        <v>160</v>
+      </c>
+      <c r="R19">
+        <v>200</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
+      <c r="AP19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX19" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="AY19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="G20" s="6">
+        <v>2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="7"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="J21" s="9"/>
+      <c r="L21" s="4"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AZ19" s="3" t="s">
+      <c r="BA21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BA19" s="3" t="s">
+      <c r="BB21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BB19" s="3" t="s">
+      <c r="BC21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BC19" s="3" t="s">
+      <c r="BD21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BD19" s="3" t="s">
+      <c r="BE21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BE19" s="3" t="s">
+      <c r="BF21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BF19" s="3" t="s">
+      <c r="BG21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BG19" s="3" t="s">
+      <c r="BH21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BH19" s="3" t="s">
+      <c r="BI21" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
+    <row r="22" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="I21" s="9"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
-        <v>2</v>
-      </c>
-      <c r="E22" s="6">
-        <v>3</v>
-      </c>
-      <c r="F22" s="6">
-        <v>4</v>
-      </c>
-      <c r="G22" s="6">
-        <v>5</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="8" t="s">
+      <c r="N22">
+        <v>240</v>
+      </c>
+      <c r="O22">
+        <v>280</v>
+      </c>
+      <c r="P22">
+        <v>320</v>
+      </c>
+      <c r="Q22">
+        <v>360</v>
+      </c>
+      <c r="R22">
+        <v>400</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="J23" s="9"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3</v>
+      </c>
+      <c r="G24" s="6">
+        <v>4</v>
+      </c>
+      <c r="H24" s="6">
+        <v>5</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7" t="s">
+      <c r="K24" s="6"/>
+      <c r="L24" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="I23" s="9"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6" t="s">
+      <c r="N24">
+        <v>550</v>
+      </c>
+      <c r="O24">
+        <v>600</v>
+      </c>
+      <c r="P24">
+        <v>650</v>
+      </c>
+      <c r="Q24">
+        <v>700</v>
+      </c>
+      <c r="R24">
+        <v>750</v>
+      </c>
+      <c r="T24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="J25" s="9"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="8" t="s">
+      <c r="I26" s="6"/>
+      <c r="J26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="7" t="s">
+      <c r="K26" s="6"/>
+      <c r="L26" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6">
-        <v>5</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="N26">
+        <v>960</v>
+      </c>
+      <c r="O26">
+        <v>1020</v>
+      </c>
+      <c r="P26">
+        <v>1080</v>
+      </c>
+      <c r="Q26">
+        <v>1140</v>
+      </c>
+      <c r="R26">
+        <v>1200</v>
+      </c>
+      <c r="T26">
         <v>10</v>
       </c>
-      <c r="E25" s="6">
+    </row>
+    <row r="27" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6">
+        <v>10</v>
+      </c>
+      <c r="F27" s="6">
         <v>15</v>
       </c>
-      <c r="F25" s="6">
+      <c r="G27" s="6">
         <v>20</v>
       </c>
-      <c r="G25" s="6">
+      <c r="H27" s="6">
         <v>25</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="8" t="s">
+      <c r="I27" s="6"/>
+      <c r="J27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="I26" s="9"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6">
-        <v>2</v>
-      </c>
-      <c r="D27" s="6">
-        <v>4</v>
-      </c>
-      <c r="E27" s="6">
-        <v>6</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="J28" s="9"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6">
+        <v>4</v>
+      </c>
+      <c r="F29" s="6">
+        <v>6</v>
+      </c>
+      <c r="G29" s="6">
         <v>8</v>
       </c>
-      <c r="G27" s="6">
+      <c r="H29" s="6">
         <v>10</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="8" t="s">
+      <c r="I29" s="6"/>
+      <c r="J29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="7" t="s">
+      <c r="K29" s="6"/>
+      <c r="L29" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="I28" s="9"/>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6" t="s">
+      <c r="N29">
+        <v>1050</v>
+      </c>
+      <c r="O29">
+        <v>1100</v>
+      </c>
+      <c r="P29">
+        <v>1150</v>
+      </c>
+      <c r="Q29">
+        <v>1200</v>
+      </c>
+      <c r="R29">
+        <v>1250</v>
+      </c>
+      <c r="T29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="J30" s="9"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="8" t="s">
+      <c r="I31" s="6"/>
+      <c r="J31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="7" t="s">
+      <c r="K31" s="6"/>
+      <c r="L31" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
+      <c r="N31">
+        <v>1950</v>
+      </c>
+      <c r="O31">
+        <f>N31+75</f>
+        <v>2025</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ref="P31:R31" si="0">O31+75</f>
+        <v>2100</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>2175</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>2250</v>
+      </c>
+      <c r="T31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="8" t="s">
+      <c r="I32" s="6"/>
+      <c r="J32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="I31" s="10"/>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="K32" s="6"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J33" s="10"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6">
-        <v>2</v>
-      </c>
-      <c r="D32" s="6">
-        <v>4</v>
-      </c>
-      <c r="E32" s="6">
-        <v>6</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6">
+        <v>4</v>
+      </c>
+      <c r="F34" s="6">
+        <v>6</v>
+      </c>
+      <c r="G34" s="6">
         <v>8</v>
       </c>
-      <c r="G32" s="6">
+      <c r="H34" s="6">
         <v>10</v>
       </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="8" t="s">
+      <c r="I34" s="6"/>
+      <c r="J34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="7" t="s">
+      <c r="K34" s="6"/>
+      <c r="L34" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6">
-        <v>1</v>
-      </c>
-      <c r="D33" s="6">
-        <v>2</v>
-      </c>
-      <c r="E33" s="6">
-        <v>3</v>
-      </c>
-      <c r="F33" s="6">
-        <v>4</v>
-      </c>
-      <c r="G33" s="6">
-        <v>5</v>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="8" t="s">
+      <c r="N34">
+        <v>1550</v>
+      </c>
+      <c r="O34">
+        <f>N34+50</f>
+        <v>1600</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:R34" si="1">O34+50</f>
+        <v>1650</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+      <c r="T34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>2</v>
+      </c>
+      <c r="F35" s="6">
+        <v>3</v>
+      </c>
+      <c r="G35" s="6">
+        <v>4</v>
+      </c>
+      <c r="H35" s="6">
+        <v>5</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I34" s="10"/>
-      <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="K35" s="6"/>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J36" s="10"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="H37" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="8" t="s">
+      <c r="I37" s="6"/>
+      <c r="J37" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="7" t="s">
+      <c r="K37" s="6"/>
+      <c r="L37" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I36" s="10"/>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="N37">
+        <v>640</v>
+      </c>
+      <c r="O37">
+        <v>640</v>
+      </c>
+      <c r="P37">
+        <v>640</v>
+      </c>
+      <c r="Q37">
+        <v>640</v>
+      </c>
+      <c r="R37">
+        <v>640</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J38" s="10"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I38" s="10"/>
-      <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="7" t="s">
+      <c r="I39" s="6"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N39">
+        <v>2700</v>
+      </c>
+      <c r="O39">
+        <f>N39+75</f>
+        <v>2775</v>
+      </c>
+      <c r="P39">
+        <f t="shared" ref="P39:Q39" si="2">O39+75</f>
+        <v>2850</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="2"/>
+        <v>2925</v>
+      </c>
+      <c r="R39">
+        <f>Q39+75</f>
+        <v>3000</v>
+      </c>
+      <c r="T39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J40" s="10"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6">
+        <v>800</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1200</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1600</v>
+      </c>
+      <c r="G41" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H41" s="6">
+        <v>2400</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="J41" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K41" s="6"/>
+      <c r="L41" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I40" s="10"/>
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J42" s="10"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6">
-        <v>2</v>
-      </c>
-      <c r="D41" s="6">
-        <v>4</v>
-      </c>
-      <c r="E41" s="6">
-        <v>6</v>
-      </c>
-      <c r="F41" s="6">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6">
+        <v>2</v>
+      </c>
+      <c r="E43" s="6">
+        <v>4</v>
+      </c>
+      <c r="F43" s="6">
+        <v>6</v>
+      </c>
+      <c r="G43" s="6">
         <v>8</v>
       </c>
-      <c r="G41" s="6">
+      <c r="H43" s="6">
         <v>10</v>
       </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="8" t="s">
+      <c r="I43" s="6"/>
+      <c r="J43" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="6"/>
-      <c r="K41" s="7" t="s">
+      <c r="K43" s="6"/>
+      <c r="L43" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6">
-        <v>4</v>
-      </c>
-      <c r="D42" s="6">
+      <c r="T43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6">
+        <v>4</v>
+      </c>
+      <c r="E44" s="6">
         <v>8</v>
       </c>
-      <c r="E42" s="6">
+      <c r="F44" s="6">
         <v>12</v>
       </c>
-      <c r="F42" s="6">
+      <c r="G44" s="6">
         <v>16</v>
       </c>
-      <c r="G42" s="6">
+      <c r="H44" s="6">
         <v>20</v>
       </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="8" t="s">
+      <c r="I44" s="6"/>
+      <c r="J44" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6">
-        <v>1</v>
-      </c>
-      <c r="D43" s="6">
-        <v>2</v>
-      </c>
-      <c r="E43" s="6">
-        <v>3</v>
-      </c>
-      <c r="F43" s="6">
-        <v>4</v>
-      </c>
-      <c r="G43" s="6">
-        <v>5</v>
-      </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="8" t="s">
+      <c r="K44" s="6"/>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6">
+        <v>2</v>
+      </c>
+      <c r="F45" s="6">
+        <v>3</v>
+      </c>
+      <c r="G45" s="6">
+        <v>4</v>
+      </c>
+      <c r="H45" s="6">
+        <v>5</v>
+      </c>
+      <c r="I45" s="6"/>
+      <c r="J45" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="7"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I44" s="10"/>
-      <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="K45" s="6"/>
+      <c r="L45" s="7"/>
+      <c r="N45">
+        <v>3680</v>
+      </c>
+      <c r="O45">
+        <f>N45+80</f>
+        <v>3760</v>
+      </c>
+      <c r="P45">
+        <f t="shared" ref="P45:R45" si="3">O45+80</f>
+        <v>3840</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="3"/>
+        <v>3920</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J46" s="10"/>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6">
-        <v>4</v>
-      </c>
-      <c r="D45" s="6">
-        <v>6</v>
-      </c>
-      <c r="E45" s="6">
+      <c r="C47" s="6"/>
+      <c r="D47" s="6">
+        <v>4</v>
+      </c>
+      <c r="E47" s="6">
+        <v>6</v>
+      </c>
+      <c r="F47" s="6">
         <v>8</v>
       </c>
-      <c r="F45" s="6">
+      <c r="G47" s="6">
         <v>10</v>
       </c>
-      <c r="G45" s="6">
+      <c r="H47" s="6">
         <v>12</v>
       </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="8" t="s">
+      <c r="I47" s="6"/>
+      <c r="J47" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="7" t="s">
+      <c r="K47" s="6"/>
+      <c r="L47" s="7" t="s">
         <v>51</v>
+      </c>
+      <c r="N47">
+        <v>4590</v>
+      </c>
+      <c r="O47">
+        <f>N47+90</f>
+        <v>4680</v>
+      </c>
+      <c r="P47">
+        <f t="shared" ref="P47:R47" si="4">O47+90</f>
+        <v>4770</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="4"/>
+        <v>4860</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="4"/>
+        <v>4950</v>
+      </c>
+      <c r="T47">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/levels.xlsx
+++ b/levels.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="67">
   <si>
     <t>Jump</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Health Pts</t>
   </si>
   <si>
-    <t>No Cap</t>
-  </si>
-  <si>
     <t>41 level cap</t>
   </si>
   <si>
@@ -222,6 +219,12 @@
   </si>
   <si>
     <t>Recharge Percent / second</t>
+  </si>
+  <si>
+    <t>Final skill</t>
+  </si>
+  <si>
+    <t>Seconds</t>
   </si>
 </sst>
 </file>
@@ -343,7 +346,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4"/>
@@ -357,6 +360,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
@@ -642,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI47"/>
+  <dimension ref="A1:BI48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +660,7 @@
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -841,7 +845,7 @@
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="12">
         <v>1.1000000000000001</v>
@@ -2293,28 +2297,28 @@
         <v>24</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="R15" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="T15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB15" t="s">
         <v>61</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>62</v>
       </c>
       <c r="AK15" s="2" t="s">
         <v>8</v>
@@ -2323,7 +2327,7 @@
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="J16" s="5"/>
       <c r="AB16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:61" x14ac:dyDescent="0.25">
@@ -2352,7 +2356,7 @@
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>25</v>
@@ -2373,7 +2377,7 @@
         <v>2.5</v>
       </c>
       <c r="AB17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:61" x14ac:dyDescent="0.25">
@@ -2481,7 +2485,7 @@
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N19">
         <v>40</v>
@@ -2712,7 +2716,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="6"/>
       <c r="L22" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N22">
         <v>240</v>
@@ -2763,7 +2767,7 @@
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>550</v>
@@ -2781,7 +2785,7 @@
         <v>750</v>
       </c>
       <c r="T24">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:61" x14ac:dyDescent="0.25">
@@ -2814,7 +2818,7 @@
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>960</v>
@@ -2855,7 +2859,7 @@
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="7"/>
@@ -2869,28 +2873,28 @@
         <v>5</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="6">
-        <v>2</v>
-      </c>
-      <c r="E29" s="6">
-        <v>4</v>
-      </c>
-      <c r="F29" s="6">
-        <v>6</v>
-      </c>
-      <c r="G29" s="6">
-        <v>8</v>
-      </c>
-      <c r="H29" s="6">
-        <v>10</v>
+      <c r="D29" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="8" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="N29">
         <v>1050</v>
@@ -2908,473 +2912,494 @@
         <v>1250</v>
       </c>
       <c r="T29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6">
+        <v>2</v>
+      </c>
+      <c r="E30" s="6">
+        <v>4</v>
+      </c>
+      <c r="F30" s="6">
+        <v>6</v>
+      </c>
+      <c r="G30" s="6">
+        <v>8</v>
+      </c>
+      <c r="H30" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="J30" s="9"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6" t="s">
+      <c r="I30" s="6"/>
+      <c r="J30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="32" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="8" t="s">
+      <c r="I32" s="6"/>
+      <c r="J32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N31">
+      <c r="K32" s="6"/>
+      <c r="L32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32">
         <v>1950</v>
       </c>
-      <c r="O31">
-        <f>N31+75</f>
+      <c r="O32">
+        <f>N32+75</f>
         <v>2025</v>
       </c>
-      <c r="P31">
-        <f t="shared" ref="P31:R31" si="0">O31+75</f>
+      <c r="P32">
+        <f t="shared" ref="P32:R32" si="0">O32+75</f>
         <v>2100</v>
       </c>
-      <c r="Q31">
+      <c r="Q32">
         <f t="shared" si="0"/>
         <v>2175</v>
       </c>
-      <c r="R31">
+      <c r="R32">
         <f t="shared" si="0"/>
         <v>2250</v>
       </c>
-      <c r="T31">
+      <c r="T32">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6" t="s">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="I33" s="6"/>
+      <c r="J33" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="8" t="s">
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J34" s="10"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6">
+        <v>4</v>
+      </c>
+      <c r="F35" s="6">
+        <v>6</v>
+      </c>
+      <c r="G35" s="6">
+        <v>8</v>
+      </c>
+      <c r="H35" s="6">
+        <v>10</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="6"/>
+      <c r="L35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J33" s="10"/>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6">
-        <v>2</v>
-      </c>
-      <c r="E34" s="6">
-        <v>4</v>
-      </c>
-      <c r="F34" s="6">
-        <v>6</v>
-      </c>
-      <c r="G34" s="6">
-        <v>8</v>
-      </c>
-      <c r="H34" s="6">
-        <v>10</v>
-      </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N34">
+      <c r="N35">
         <v>1550</v>
       </c>
-      <c r="O34">
-        <f>N34+50</f>
+      <c r="O35">
+        <f>N35+50</f>
         <v>1600</v>
       </c>
-      <c r="P34">
-        <f t="shared" ref="P34:R34" si="1">O34+50</f>
+      <c r="P35">
+        <f t="shared" ref="P35:R35" si="1">O35+50</f>
         <v>1650</v>
       </c>
-      <c r="Q34">
+      <c r="Q35">
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-      <c r="R34">
+      <c r="R35">
         <f t="shared" si="1"/>
         <v>1750</v>
       </c>
-      <c r="T34">
+      <c r="T35">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6">
-        <v>2</v>
-      </c>
-      <c r="F35" s="6">
-        <v>3</v>
-      </c>
-      <c r="G35" s="6">
-        <v>4</v>
-      </c>
-      <c r="H35" s="6">
-        <v>5</v>
-      </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="7"/>
-    </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J36" s="10"/>
-      <c r="L36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6">
+        <v>2</v>
+      </c>
+      <c r="F36" s="6">
+        <v>3</v>
+      </c>
+      <c r="G36" s="6">
+        <v>4</v>
+      </c>
+      <c r="H36" s="6">
+        <v>5</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="6"/>
+      <c r="L36" s="7"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
+      <c r="J37" s="10"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="8" t="s">
+      <c r="K38" s="6"/>
+      <c r="L38" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="7" t="s">
+      <c r="N38">
+        <v>640</v>
+      </c>
+      <c r="O38">
+        <v>640</v>
+      </c>
+      <c r="P38">
+        <v>640</v>
+      </c>
+      <c r="Q38">
+        <v>640</v>
+      </c>
+      <c r="R38">
+        <v>640</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J39" s="10"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N37">
-        <v>640</v>
-      </c>
-      <c r="O37">
-        <v>640</v>
-      </c>
-      <c r="P37">
-        <v>640</v>
-      </c>
-      <c r="Q37">
-        <v>640</v>
-      </c>
-      <c r="R37">
-        <v>640</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J38" s="10"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N39">
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N40">
         <v>2700</v>
       </c>
-      <c r="O39">
-        <f>N39+75</f>
+      <c r="O40">
+        <f>N40+75</f>
         <v>2775</v>
       </c>
-      <c r="P39">
-        <f t="shared" ref="P39:Q39" si="2">O39+75</f>
+      <c r="P40">
+        <f t="shared" ref="P40:Q40" si="2">O40+75</f>
         <v>2850</v>
       </c>
-      <c r="Q39">
+      <c r="Q40">
         <f t="shared" si="2"/>
         <v>2925</v>
       </c>
-      <c r="R39">
-        <f>Q39+75</f>
+      <c r="R40">
+        <f>Q40+75</f>
         <v>3000</v>
       </c>
-      <c r="T39">
+      <c r="T40">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J40" s="10"/>
-      <c r="L40" s="4"/>
-    </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
+      <c r="J41" s="10"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6">
         <v>800</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E42" s="6">
         <v>1200</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F42" s="6">
         <v>1600</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G42" s="6">
         <v>2000</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H42" s="6">
         <v>2400</v>
       </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="8" t="s">
+      <c r="I42" s="6"/>
+      <c r="J42" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K42" s="6"/>
+      <c r="L42" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="T42">
         <v>60</v>
       </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J42" s="10"/>
-      <c r="L42" s="4"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
+      <c r="J43" s="10"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6">
-        <v>2</v>
-      </c>
-      <c r="E43" s="6">
-        <v>4</v>
-      </c>
-      <c r="F43" s="6">
-        <v>6</v>
-      </c>
-      <c r="G43" s="6">
-        <v>8</v>
-      </c>
-      <c r="H43" s="6">
-        <v>10</v>
-      </c>
-      <c r="I43" s="6"/>
-      <c r="J43" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="T43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6">
         <v>4</v>
       </c>
       <c r="E44" s="6">
+        <v>6</v>
+      </c>
+      <c r="F44" s="6">
         <v>8</v>
       </c>
-      <c r="F44" s="6">
+      <c r="G44" s="6">
+        <v>10</v>
+      </c>
+      <c r="H44" s="6">
         <v>12</v>
-      </c>
-      <c r="G44" s="6">
-        <v>16</v>
-      </c>
-      <c r="H44" s="6">
-        <v>20</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="8" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="K44" s="6"/>
-      <c r="L44" s="7"/>
+      <c r="L44" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T44">
+        <v>30</v>
+      </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E45" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F45" s="6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G45" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H45" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="7"/>
-      <c r="N45">
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6">
+        <v>2</v>
+      </c>
+      <c r="F46" s="6">
+        <v>3</v>
+      </c>
+      <c r="G46" s="6">
+        <v>4</v>
+      </c>
+      <c r="H46" s="6">
+        <v>5</v>
+      </c>
+      <c r="I46" s="6"/>
+      <c r="J46" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K46" s="6"/>
+      <c r="L46" s="7"/>
+      <c r="N46">
         <v>3680</v>
       </c>
-      <c r="O45">
-        <f>N45+80</f>
+      <c r="O46">
+        <f>N46+80</f>
         <v>3760</v>
       </c>
-      <c r="P45">
-        <f t="shared" ref="P45:R45" si="3">O45+80</f>
+      <c r="P46">
+        <f t="shared" ref="P46:R46" si="3">O46+80</f>
         <v>3840</v>
       </c>
-      <c r="Q45">
+      <c r="Q46">
         <f t="shared" si="3"/>
         <v>3920</v>
       </c>
-      <c r="R45">
+      <c r="R46">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J46" s="10"/>
-      <c r="L46" s="4"/>
-    </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
+      <c r="J47" s="10"/>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6">
-        <v>4</v>
-      </c>
-      <c r="E47" s="6">
-        <v>6</v>
-      </c>
-      <c r="F47" s="6">
+      <c r="C48" s="6"/>
+      <c r="D48" s="6">
+        <v>4</v>
+      </c>
+      <c r="E48" s="6">
+        <v>6</v>
+      </c>
+      <c r="F48" s="6">
         <v>8</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G48" s="6">
         <v>10</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H48" s="6">
         <v>12</v>
       </c>
-      <c r="I47" s="6"/>
-      <c r="J47" s="8" t="s">
+      <c r="I48" s="6"/>
+      <c r="J48" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48" s="6"/>
+      <c r="L48" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K47" s="6"/>
-      <c r="L47" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N47">
+      <c r="N48">
         <v>4590</v>
       </c>
-      <c r="O47">
-        <f>N47+90</f>
+      <c r="O48">
+        <f>N48+90</f>
         <v>4680</v>
       </c>
-      <c r="P47">
-        <f t="shared" ref="P47:R47" si="4">O47+90</f>
+      <c r="P48">
+        <f t="shared" ref="P48:R48" si="4">O48+90</f>
         <v>4770</v>
       </c>
-      <c r="Q47">
+      <c r="Q48">
         <f t="shared" si="4"/>
         <v>4860</v>
       </c>
-      <c r="R47">
+      <c r="R48">
         <f t="shared" si="4"/>
         <v>4950</v>
       </c>
-      <c r="T47">
+      <c r="T48">
         <v>60</v>
       </c>
     </row>

--- a/levels.xlsx
+++ b/levels.xlsx
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,7 +2331,7 @@
       </c>
     </row>
     <row r="17" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="6"/>
@@ -2460,7 +2460,7 @@
       </c>
     </row>
     <row r="19" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="6"/>
@@ -2701,7 +2701,7 @@
       </c>
     </row>
     <row r="22" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="6"/>
@@ -2742,7 +2742,7 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="6"/>
@@ -2793,7 +2793,7 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="6"/>
@@ -2869,7 +2869,7 @@
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="6"/>
@@ -2941,7 +2941,7 @@
       <c r="L30" s="6"/>
     </row>
     <row r="32" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="6"/>
@@ -3101,7 +3101,7 @@
       <c r="L37" s="4"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="6"/>
@@ -3152,7 +3152,7 @@
       <c r="L39" s="4"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="6"/>
@@ -3248,7 +3248,7 @@
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="6"/>
@@ -3353,7 +3353,7 @@
       <c r="L47" s="4"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="6"/>

--- a/levels.xlsx
+++ b/levels.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Forge\Mods\StarWarsMod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Desktop\GitHub\StarWarsMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="110">
   <si>
     <t>Jump</t>
   </si>
@@ -225,6 +225,135 @@
   </si>
   <si>
     <t>Seconds</t>
+  </si>
+  <si>
+    <t>Transmute</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Dirt</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>Dead Bush</t>
+  </si>
+  <si>
+    <t>Sapling</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Melon</t>
+  </si>
+  <si>
+    <t>Cobblestone</t>
+  </si>
+  <si>
+    <t>Gravel</t>
+  </si>
+  <si>
+    <t>Netherrack</t>
+  </si>
+  <si>
+    <t>Nether Brick</t>
+  </si>
+  <si>
+    <t>Coal Ore</t>
+  </si>
+  <si>
+    <t>Diamond Ore</t>
+  </si>
+  <si>
+    <t>Gold Ore</t>
+  </si>
+  <si>
+    <t>Lapis Ore</t>
+  </si>
+  <si>
+    <t>Iron Ore</t>
+  </si>
+  <si>
+    <t>Emerald Ore</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Sandstone</t>
+  </si>
+  <si>
+    <t>End Stone</t>
+  </si>
+  <si>
+    <t>Stone Bricks</t>
+  </si>
+  <si>
+    <t>Bricks</t>
+  </si>
+  <si>
+    <t>Redstone Block</t>
+  </si>
+  <si>
+    <t>TNT</t>
+  </si>
+  <si>
+    <t>Mossy Cobble</t>
+  </si>
+  <si>
+    <t>Mycellium</t>
+  </si>
+  <si>
+    <t>Fence</t>
+  </si>
+  <si>
+    <t>Nether Fence</t>
+  </si>
+  <si>
+    <t>Quartz Slab</t>
+  </si>
+  <si>
+    <t>Cake Block</t>
+  </si>
+  <si>
+    <t>Note Block</t>
+  </si>
+  <si>
+    <t>Jukebox</t>
+  </si>
+  <si>
+    <t>Spider Web</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Nether Quartz</t>
+  </si>
+  <si>
+    <t>Quartz Block</t>
+  </si>
+  <si>
+    <t>Titanium Ore</t>
+  </si>
+  <si>
+    <t>Chromium Ore</t>
   </si>
 </sst>
 </file>
@@ -646,19 +775,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI48"/>
+  <dimension ref="A1:BI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="S19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC49" sqref="AC49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
@@ -843,7 +972,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>64</v>
       </c>
@@ -1028,7 +1157,7 @@
         <v>5.9999999999999902</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1392,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1564,7 +1693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1726,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1878,7 +2007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2020,7 +2149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2152,7 +2281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2274,7 +2403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
@@ -2324,13 +2453,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
       <c r="J16" s="5"/>
       <c r="AB16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>0</v>
       </c>
@@ -2380,7 +2509,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:61" x14ac:dyDescent="0.35">
       <c r="J18" s="9"/>
       <c r="L18" s="4"/>
       <c r="AK18" s="3" t="s">
@@ -2459,7 +2588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
         <v>1</v>
       </c>
@@ -2571,7 +2700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6">
@@ -2651,7 +2780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:61" x14ac:dyDescent="0.35">
       <c r="J21" s="9"/>
       <c r="L21" s="4"/>
       <c r="AK21" s="3"/>
@@ -2700,7 +2829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B22" s="8" t="s">
         <v>2</v>
       </c>
@@ -2737,11 +2866,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:61" x14ac:dyDescent="0.35">
       <c r="J23" s="9"/>
       <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="Z23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B24" s="8" t="s">
         <v>3</v>
       </c>
@@ -2787,12 +2919,30 @@
       <c r="T24">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="Z24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:61" x14ac:dyDescent="0.35">
       <c r="J25" s="9"/>
       <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B26" s="8" t="s">
         <v>4</v>
       </c>
@@ -2838,8 +2988,17 @@
       <c r="T26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6">
@@ -2863,12 +3022,30 @@
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="Z27">
+        <v>2</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:61" x14ac:dyDescent="0.35">
       <c r="J28" s="9"/>
       <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="Z28">
+        <v>2</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B29" s="8" t="s">
         <v>5</v>
       </c>
@@ -2914,8 +3091,17 @@
       <c r="T29">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="Z29">
+        <v>3</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6">
@@ -2939,8 +3125,28 @@
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-    </row>
-    <row r="32" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="Z30">
+        <v>3</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="2:61" x14ac:dyDescent="0.35">
+      <c r="Z31">
+        <v>4</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:61" x14ac:dyDescent="0.35">
       <c r="B32" s="8" t="s">
         <v>6</v>
       </c>
@@ -2990,8 +3196,17 @@
       <c r="T32">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Z32">
+        <v>4</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6" t="s">
@@ -3015,12 +3230,30 @@
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Z33">
+        <v>5</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.35">
       <c r="J34" s="10"/>
       <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Z34">
+        <v>5</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B35" s="6" t="s">
         <v>7</v>
       </c>
@@ -3070,8 +3303,17 @@
       <c r="T35">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Z35">
+        <v>6</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6">
@@ -3095,12 +3337,30 @@
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Z36">
+        <v>6</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.35">
       <c r="J37" s="10"/>
       <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Z37">
+        <v>7</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B38" s="8" t="s">
         <v>8</v>
       </c>
@@ -3146,12 +3406,30 @@
       <c r="T38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Z38">
+        <v>7</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.35">
       <c r="J39" s="10"/>
       <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Z39">
+        <v>8</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
         <v>9</v>
       </c>
@@ -3191,12 +3469,30 @@
       <c r="T40">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Z40">
+        <v>8</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.35">
       <c r="J41" s="10"/>
       <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Z41">
+        <v>9</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B42" s="6" t="s">
         <v>10</v>
       </c>
@@ -3242,12 +3538,30 @@
       <c r="T42">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Z42">
+        <v>9</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.35">
       <c r="J43" s="10"/>
       <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Z43">
+        <v>10</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B44" s="8" t="s">
         <v>11</v>
       </c>
@@ -3278,8 +3592,17 @@
       <c r="T44">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Z44">
+        <v>10</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6">
@@ -3303,8 +3626,17 @@
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Z45">
+        <v>11</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6">
@@ -3347,12 +3679,30 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Z46">
+        <v>11</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.35">
       <c r="J47" s="10"/>
       <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Z47">
+        <v>12</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B48" s="8" t="s">
         <v>12</v>
       </c>
@@ -3401,6 +3751,26 @@
       </c>
       <c r="T48">
         <v>60</v>
+      </c>
+      <c r="Z48">
+        <v>12</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="26:29" x14ac:dyDescent="0.35">
+      <c r="Z49">
+        <v>12</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/levels.xlsx
+++ b/levels.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Desktop\GitHub\StarWarsMod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Forge\Mods\StarWarsMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -777,17 +777,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC49" sqref="AC49"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
@@ -972,7 +972,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>64</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>5.9999999999999902</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1693,7 +1693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1855,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2007,7 +2007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2149,7 +2149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2281,7 +2281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2403,7 +2403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
@@ -2453,13 +2453,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="J16" s="5"/>
       <c r="AB16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>0</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:61" x14ac:dyDescent="0.25">
       <c r="J18" s="9"/>
       <c r="L18" s="4"/>
       <c r="AK18" s="3" t="s">
@@ -2588,7 +2588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>1</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6">
@@ -2780,7 +2780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:61" x14ac:dyDescent="0.25">
       <c r="J21" s="9"/>
       <c r="L21" s="4"/>
       <c r="AK21" s="3"/>
@@ -2829,7 +2829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>2</v>
       </c>
@@ -2866,14 +2866,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:61" x14ac:dyDescent="0.25">
       <c r="J23" s="9"/>
       <c r="L23" s="4"/>
       <c r="Z23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>3</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:61" x14ac:dyDescent="0.25">
       <c r="J25" s="9"/>
       <c r="L25" s="4"/>
       <c r="Z25">
@@ -2942,7 +2942,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>4</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6">
@@ -3032,7 +3032,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:61" x14ac:dyDescent="0.25">
       <c r="J28" s="9"/>
       <c r="L28" s="4"/>
       <c r="Z28">
@@ -3045,7 +3045,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>5</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6">
@@ -3135,7 +3135,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:61" x14ac:dyDescent="0.25">
       <c r="Z31">
         <v>4</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="2:61" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>6</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6" t="s">
@@ -3240,7 +3240,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
       <c r="J34" s="10"/>
       <c r="L34" s="4"/>
       <c r="Z34">
@@ -3253,8 +3253,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="6"/>
@@ -3313,7 +3313,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6">
@@ -3347,7 +3347,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
       <c r="J37" s="10"/>
       <c r="L37" s="4"/>
       <c r="Z37">
@@ -3360,7 +3360,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>8</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
       <c r="J39" s="10"/>
       <c r="L39" s="4"/>
       <c r="Z39">
@@ -3429,7 +3429,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>9</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
       <c r="J41" s="10"/>
       <c r="L41" s="4"/>
       <c r="Z41">
@@ -3492,7 +3492,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>10</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
       <c r="J43" s="10"/>
       <c r="L43" s="4"/>
       <c r="Z43">
@@ -3561,7 +3561,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>11</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6">
@@ -3636,7 +3636,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6">
@@ -3689,7 +3689,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
       <c r="J47" s="10"/>
       <c r="L47" s="4"/>
       <c r="Z47">
@@ -3702,7 +3702,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>12</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="26:29" x14ac:dyDescent="0.35">
+    <row r="49" spans="26:29" x14ac:dyDescent="0.25">
       <c r="Z49">
         <v>12</v>
       </c>
